--- a/Упражнения ИРДН/Фонтан.xlsx
+++ b/Упражнения ИРДН/Фонтан.xlsx
@@ -31,16 +31,19 @@
     <definedName name="Hpump_" localSheetId="0">Упражнения!$C$19</definedName>
     <definedName name="Kdegr_" localSheetId="0">Упражнения!#REF!</definedName>
     <definedName name="KsepGasSep_" localSheetId="0">Упражнения!#REF!</definedName>
-    <definedName name="N_" localSheetId="0">Упражнения!$C$34</definedName>
+    <definedName name="N_" localSheetId="0">Упражнения!$C$36</definedName>
     <definedName name="NumStage_" localSheetId="0">Упражнения!#REF!</definedName>
     <definedName name="Pb_" localSheetId="0">Упражнения!$C$11</definedName>
     <definedName name="Pbuf_" localSheetId="0">Упражнения!$C$24</definedName>
-    <definedName name="Pdis_" localSheetId="0">Упражнения!$C$29</definedName>
-    <definedName name="PI_" localSheetId="0">Упражнения!#REF!</definedName>
+    <definedName name="Pdis_" localSheetId="0">Упражнения!$C$28</definedName>
+    <definedName name="PI_" localSheetId="0">Упражнения!$C$34</definedName>
+    <definedName name="PI_1">Упражнения!$B$77</definedName>
     <definedName name="Pintake_" localSheetId="0">Упражнения!$C$25</definedName>
-    <definedName name="Pres_" localSheetId="0">Упражнения!#REF!</definedName>
+    <definedName name="Pres_" localSheetId="0">Упражнения!$C$33</definedName>
     <definedName name="PumpID_" localSheetId="0">Упражнения!#REF!</definedName>
     <definedName name="Pwf_" localSheetId="0">Упражнения!$C$27</definedName>
+    <definedName name="Pwf_1">Упражнения!$B$74</definedName>
+    <definedName name="Pwf_test">Упражнения!$C$18</definedName>
     <definedName name="Pwf1_" localSheetId="0">Упражнения!#REF!</definedName>
     <definedName name="Pбуф__атм">Фонтан!$B$14</definedName>
     <definedName name="Pбуф_расч__атм">Фонтан!$E$14</definedName>
@@ -52,10 +55,13 @@
     <definedName name="Pлин_расч__атм">Фонтан!$E$13</definedName>
     <definedName name="Pнас__атм">Фонтан!$B$29</definedName>
     <definedName name="Pпласт__атм">Фонтан!$B$19</definedName>
-    <definedName name="Q_" localSheetId="0">Упражнения!$C$28</definedName>
+    <definedName name="Q_" localSheetId="0">Упражнения!#REF!</definedName>
     <definedName name="Q_ESP_" localSheetId="0">Упражнения!#REF!</definedName>
+    <definedName name="Q_test">Упражнения!$C$17</definedName>
     <definedName name="Qmax" localSheetId="0">Упражнения!#REF!</definedName>
+    <definedName name="Qmax_">Упражнения!$F$73</definedName>
     <definedName name="Qreal_" localSheetId="0">Упражнения!#REF!</definedName>
+    <definedName name="Qtest_">Упражнения!$C$39</definedName>
     <definedName name="Qж__м3_сут">Фонтан!$B$9</definedName>
     <definedName name="Qж_расч__м3_сут">Фонтан!$E$9</definedName>
     <definedName name="Qн__т_сут">Фонтан!$B$10</definedName>
@@ -135,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="344">
   <si>
     <t>Конструкция</t>
   </si>
@@ -1107,9 +1113,6 @@
     <t>Давление на забое</t>
   </si>
   <si>
-    <t>Дебит скважины</t>
-  </si>
-  <si>
     <t>Давление на выкиде</t>
   </si>
   <si>
@@ -1131,7 +1134,46 @@
     <t>P снизу вверх</t>
   </si>
   <si>
-    <t>Упражнение</t>
+    <t>Упражнение 1</t>
+  </si>
+  <si>
+    <t>Упражнение 2</t>
+  </si>
+  <si>
+    <t>Построить кривые IPR и VLP для заданных дебитов</t>
+  </si>
+  <si>
+    <t>Qmax</t>
+  </si>
+  <si>
+    <t>Пластовое давление</t>
+  </si>
+  <si>
+    <t>Коэффициет продуктивности</t>
+  </si>
+  <si>
+    <t>м3/сут/атм</t>
+  </si>
+  <si>
+    <t>Измеренное значение дебита</t>
+  </si>
+  <si>
+    <t>Забойное давление для измеренного дебита</t>
+  </si>
+  <si>
+    <t>Рзаб</t>
+  </si>
+  <si>
+    <t>Кпрод</t>
+  </si>
+  <si>
+    <t>Pwf (IPR)</t>
+  </si>
+  <si>
+    <t>Pwf (VLP)</t>
+  </si>
+  <si>
+    <t>м3/сут/ат</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1293,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1303,6 +1345,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,7 +1799,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1939,6 +1987,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2051,6 +2122,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Iau?iue_AA_1" xfId="1"/>
@@ -2258,64 +2330,64 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.156569438547763</c:v>
+                  <c:v>23.690039097911352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.628595885870336</c:v>
+                  <c:v>27.63241795481548</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.384809881494832</c:v>
+                  <c:v>31.811012813865933</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.398319037391765</c:v>
+                  <c:v>36.207904543694994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.684701908745943</c:v>
+                  <c:v>40.804196778963131</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.225011377732081</c:v>
+                  <c:v>45.580697381992969</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.967078784390857</c:v>
+                  <c:v>50.51848637279155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.86549699322569</c:v>
+                  <c:v>55.59949486859658</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.886173397864397</c:v>
+                  <c:v>60.806433976025218</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.001643303854152</c:v>
+                  <c:v>66.123207240048671</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.189825349441492</c:v>
+                  <c:v>71.535029732553639</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85.452539969885734</c:v>
+                  <c:v>77.028475862477649</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91.851866019011652</c:v>
+                  <c:v>82.627540776409361</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>98.385357832978769</c:v>
+                  <c:v>88.389713070743966</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>105.03835251789924</c:v>
+                  <c:v>94.305729415515501</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>111.79800702298648</c:v>
+                  <c:v>100.36051438473054</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>118.6531359543705</c:v>
+                  <c:v>106.54148843863241</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>125.59436137336776</c:v>
+                  <c:v>112.83684548745266</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>132.57457435390785</c:v>
+                  <c:v>119.23533489466178</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>139.54514160291967</c:v>
+                  <c:v>125.72637028585582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2444,64 +2516,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>23.347102979852817</c:v>
+                  <c:v>30.481037783382391</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.755815936097697</c:v>
+                  <c:v>34.868047829039725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.454093182060092</c:v>
+                  <c:v>39.464539243653078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.411076573700086</c:v>
+                  <c:v>44.250442931584352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.633543323713248</c:v>
+                  <c:v>49.205798569366905</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.117993765213562</c:v>
+                  <c:v>54.311260476352359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.81526092953542</c:v>
+                  <c:v>59.548480790241911</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.676767449883329</c:v>
+                  <c:v>64.900484393091332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.667024668266038</c:v>
+                  <c:v>70.351492642687361</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.757403600233488</c:v>
+                  <c:v>75.887178111896787</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.924867112516637</c:v>
+                  <c:v>81.543813571233215</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.15842935787353</c:v>
+                  <c:v>87.372117032765289</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.517254737626942</c:v>
+                  <c:v>93.358626954725224</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97.01361703042798</c:v>
+                  <c:v>99.487453869047357</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103.63252606146156</c:v>
+                  <c:v>105.74523483000064</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>110.36082867360091</c:v>
+                  <c:v>112.11920169076619</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>117.18704850375278</c:v>
+                  <c:v>118.59724339320155</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>124.10122492164474</c:v>
+                  <c:v>125.16864715150933</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>131.07301223102681</c:v>
+                  <c:v>131.78745941781119</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>138.04178308259057</c:v>
+                  <c:v>138.39898468171211</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>145</c:v>
@@ -2596,11 +2668,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175189376"/>
-        <c:axId val="175189952"/>
+        <c:axId val="296075840"/>
+        <c:axId val="296076416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175189376"/>
+        <c:axId val="296075840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,12 +2770,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175189952"/>
+        <c:crossAx val="296076416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175189952"/>
+        <c:axId val="296076416"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2801,7 +2873,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175189376"/>
+        <c:crossAx val="296075840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2922,7 +2994,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3187,11 +3258,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175192832"/>
-        <c:axId val="175193408"/>
+        <c:axId val="296079296"/>
+        <c:axId val="296079872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175192832"/>
+        <c:axId val="296079296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3242,7 +3313,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3289,12 +3359,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175193408"/>
+        <c:crossAx val="296079872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175193408"/>
+        <c:axId val="296079872"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3345,7 +3415,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3392,7 +3461,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175192832"/>
+        <c:crossAx val="296079296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3406,7 +3475,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3474,6 +3542,807 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IPR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> и</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> VLP</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1202988191978465E-2"/>
+          <c:y val="6.322237510368435E-2"/>
+          <c:w val="0.79459995901803337"/>
+          <c:h val="0.70531459280289899"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IPR</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Упражнения!$E$77:$E$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5065677006626244</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.013135401325249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.519703101987872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.026270802650497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.532838503313123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.039406203975744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.545973904638366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.052541605300988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.559109305963617</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.065677006626245</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.572244707288874</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90.078812407951503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.585380108614132</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105.09194780927676</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112.59851550993939</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120.10508321060202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127.61165091126465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>135.11821861192726</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>142.62478631258989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150.13135401325252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Упражнения!$F$77:$F$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240.79098856263326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231.58197712526652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>222.37296568789978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213.16395425053304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203.9549428131663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>194.74593137579956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>185.53691993843282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>176.3279085010661</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>167.11889706369934</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>157.9098856263326</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>148.69633859621277</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>139.17750645001865</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>129.10380262958219</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>118.35154009809099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106.74285346464455</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94.005190967246946</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.68083865145735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62.880908180761416</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.330531975564476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>VLP1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Упражнения!$E$77:$E$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5065677006626244</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.013135401325249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.519703101987872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.026270802650497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.532838503313123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.039406203975744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.545973904638366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.052541605300988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.559109305963617</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.065677006626245</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.572244707288874</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90.078812407951503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.585380108614132</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105.09194780927676</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112.59851550993939</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120.10508321060202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127.61165091126465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>135.11821861192726</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>142.62478631258989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150.13135401325252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Упражнения!$G$77:$G$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>161.58056674595011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161.03192235075352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159.27288816086445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156.68999022188311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153.12114612691926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>148.25457548987569</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141.68154976334534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136.6775146261615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135.9861348803459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135.62203992006485</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135.33364050039933</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135.11158186648291</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>134.94664592029127</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134.83106592243607</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>134.76153509274681</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134.7361591350508</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134.74959795417709</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134.84870428711204</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>135.02896315414915</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135.29500651476201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135.64055790256444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>VLP2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Упражнения!$E$77:$E$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5065677006626244</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.013135401325249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.519703101987872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.026270802650497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.532838503313123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.039406203975744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.545973904638366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.052541605300988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.559109305963617</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.065677006626245</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.572244707288874</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90.078812407951503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.585380108614132</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105.09194780927676</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112.59851550993939</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120.10508321060202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127.61165091126465</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>135.11821861192726</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>142.62478631258989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150.13135401325252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Упражнения!$H$77:$H$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>184.54639687213466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184.51823243539519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183.85055415868501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182.45053074547664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180.32293649801312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>177.36227177641854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>173.37940961517512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168.52107999922245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>166.51215401594109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>166.25168162453437</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>166.04324514231382</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>165.88301082263661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>165.76143469429798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>165.67889234057114</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>165.63174106658673</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>165.61240370234293</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>165.61966423475022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>165.65204558339963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>165.74948921232311</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>165.96259552447376</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>166.22681898460669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="296082176"/>
+        <c:axId val="296082752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="296082176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Дебит  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>м3/сут</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39625196877125629"/>
+              <c:y val="0.86477093200508615"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296082752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="296082752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Давление на забое, атм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296082176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3881,11 +4750,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144920512"/>
-        <c:axId val="144921088"/>
+        <c:axId val="296807808"/>
+        <c:axId val="296808384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144920512"/>
+        <c:axId val="296807808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3930,12 +4799,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144921088"/>
+        <c:crossAx val="296808384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144921088"/>
+        <c:axId val="296808384"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="0"/>
@@ -3980,7 +4849,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144920512"/>
+        <c:crossAx val="296807808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4057,7 +4926,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4511,11 +5380,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144922816"/>
-        <c:axId val="144923392"/>
+        <c:axId val="296810112"/>
+        <c:axId val="296810688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144922816"/>
+        <c:axId val="296810112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4560,12 +5429,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144923392"/>
+        <c:crossAx val="296810688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144923392"/>
+        <c:axId val="296810688"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="0"/>
@@ -4610,7 +5479,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144922816"/>
+        <c:crossAx val="296810112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4687,7 +5556,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -5092,11 +5961,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147612224"/>
-        <c:axId val="147612800"/>
+        <c:axId val="296755200"/>
+        <c:axId val="296755776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147612224"/>
+        <c:axId val="296755200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5141,12 +6010,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147612800"/>
+        <c:crossAx val="296755776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147612800"/>
+        <c:axId val="296755776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5191,7 +6060,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147612224"/>
+        <c:crossAx val="296755200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6573,6 +7442,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>369095</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>508468</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>129901</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7186,6 +8087,9 @@
       <sheetName val="Лист1"/>
     </sheetNames>
     <definedNames>
+      <definedName name="IPR_PI_sm3dayatm"/>
+      <definedName name="IPR_Pwf_atma"/>
+      <definedName name="IPR_Ql_sm3Day"/>
       <definedName name="MF_dPpipe_atma"/>
     </definedNames>
     <sheetDataSet>
@@ -7498,8 +8402,8 @@
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62:G62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7507,9 +8411,10 @@
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="10.140625" customWidth="1"/>
   </cols>
@@ -7628,7 +8533,7 @@
         <v>139</v>
       </c>
       <c r="C14" s="54">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>293</v>
@@ -7771,31 +8676,21 @@
         <v>323</v>
       </c>
       <c r="C28" s="54">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="C29" s="54">
-        <v>150</v>
-      </c>
-      <c r="D29" s="53" t="s">
         <v>291</v>
       </c>
     </row>
+    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="54">
         <v>3</v>
@@ -7804,34 +8699,78 @@
         <v>297</v>
       </c>
     </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" s="54">
+        <v>250</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>291</v>
+      </c>
+    </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="C34" s="70">
+        <f>[1]!IPR_PI_sm3dayatm(Q_,Pwf_,Pres_,wc_,Pb_)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C36" s="54">
         <v>20</v>
       </c>
-      <c r="D34" s="53"/>
+      <c r="D36" s="53"/>
     </row>
     <row r="37" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>331</v>
-      </c>
+      <c r="A38" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="52"/>
     </row>
     <row r="39" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="54">
+        <v>100</v>
+      </c>
+      <c r="D39" s="69" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="72"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="73"/>
+    </row>
+    <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
@@ -7843,10 +8782,10 @@
         <v>299</v>
       </c>
       <c r="E47" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="J47" s="63" t="s">
         <v>329</v>
-      </c>
-      <c r="J47" s="63" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7865,8 +8804,8 @@
       <c r="G48" s="65"/>
       <c r="H48" s="65"/>
       <c r="J48" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C49,C48,J49,D49,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>23.347102979852817</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C49,C48,J49,D49,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>30.481037783382391</v>
       </c>
     </row>
     <row r="49" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7879,12 +8818,12 @@
         <v>23</v>
       </c>
       <c r="E49" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C48,C49,E48,D48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>24.156569438547763</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C48,C49,E48,D48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>23.690039097911352</v>
       </c>
       <c r="J49" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C50,C49,J50,D50,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>27.755815936097697</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C50,C49,J50,D50,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>34.868047829039725</v>
       </c>
     </row>
     <row r="50" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7897,12 +8836,12 @@
         <v>26</v>
       </c>
       <c r="E50" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C49,C50,E49,D49,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>28.628595885870336</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C49,C50,E49,D49,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>27.63241795481548</v>
       </c>
       <c r="J50" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C51,C50,J51,D51,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>32.454093182060092</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C51,C50,J51,D51,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>39.464539243653078</v>
       </c>
     </row>
     <row r="51" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7915,12 +8854,12 @@
         <v>29</v>
       </c>
       <c r="E51" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C50,C51,E50,D50,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>33.384809881494832</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C50,C51,E50,D50,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>31.811012813865933</v>
       </c>
       <c r="J51" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C52,C51,J52,D52,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>37.411076573700086</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C52,C51,J52,D52,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>44.250442931584352</v>
       </c>
     </row>
     <row r="52" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7933,12 +8872,12 @@
         <v>32</v>
       </c>
       <c r="E52" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C51,C52,E51,D51,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>38.398319037391765</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C51,C52,E51,D51,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>36.207904543694994</v>
       </c>
       <c r="J52" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C53,C52,J53,D53,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>42.633543323713248</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C53,C52,J53,D53,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>49.205798569366905</v>
       </c>
     </row>
     <row r="53" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7951,12 +8890,12 @@
         <v>35</v>
       </c>
       <c r="E53" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C52,C53,E52,D52,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>43.684701908745943</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C52,C53,E52,D52,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>40.804196778963131</v>
       </c>
       <c r="J53" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C54,C53,J54,D54,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>48.117993765213562</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C54,C53,J54,D54,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>54.311260476352359</v>
       </c>
     </row>
     <row r="54" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7969,12 +8908,12 @@
         <v>38</v>
       </c>
       <c r="E54" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C53,C54,E53,D53,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>49.225011377732081</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C53,C54,E53,D53,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>45.580697381992969</v>
       </c>
       <c r="J54" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C55,C54,J55,D55,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>53.81526092953542</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C55,C54,J55,D55,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>59.548480790241911</v>
       </c>
     </row>
     <row r="55" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -7987,12 +8926,12 @@
         <v>41</v>
       </c>
       <c r="E55" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C54,C55,E54,D54,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>54.967078784390857</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C54,C55,E54,D54,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>50.51848637279155</v>
       </c>
       <c r="J55" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C56,C55,J56,D56,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>59.676767449883329</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C56,C55,J56,D56,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>64.900484393091332</v>
       </c>
     </row>
     <row r="56" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8005,12 +8944,12 @@
         <v>44</v>
       </c>
       <c r="E56" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C55,C56,E55,D55,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>60.86549699322569</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C55,C56,E55,D55,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>55.59949486859658</v>
       </c>
       <c r="J56" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C57,C56,J57,D57,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>65.667024668266038</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C57,C56,J57,D57,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>70.351492642687361</v>
       </c>
     </row>
     <row r="57" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8023,12 +8962,12 @@
         <v>47</v>
       </c>
       <c r="E57" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C56,C57,E56,D56,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>66.886173397864397</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C56,C57,E56,D56,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>60.806433976025218</v>
       </c>
       <c r="J57" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C58,C57,J58,D58,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>71.757403600233488</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C58,C57,J58,D58,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>75.887178111896787</v>
       </c>
     </row>
     <row r="58" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8041,12 +8980,12 @@
         <v>50</v>
       </c>
       <c r="E58" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C57,C58,E57,D57,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>73.001643303854152</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C57,C58,E57,D57,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>66.123207240048671</v>
       </c>
       <c r="J58" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C59,C58,J59,D59,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>77.924867112516637</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C59,C58,J59,D59,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>81.543813571233215</v>
       </c>
     </row>
     <row r="59" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8059,12 +8998,12 @@
         <v>53</v>
       </c>
       <c r="E59" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C58,C59,E58,D58,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>79.189825349441492</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C58,C59,E58,D58,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>71.535029732553639</v>
       </c>
       <c r="J59" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C60,C59,J60,D60,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>84.15842935787353</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C60,C59,J60,D60,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>87.372117032765289</v>
       </c>
     </row>
     <row r="60" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8077,12 +9016,12 @@
         <v>56</v>
       </c>
       <c r="E60" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C59,C60,E59,D59,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>85.452539969885734</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C59,C60,E59,D59,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>77.028475862477649</v>
       </c>
       <c r="J60" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C61,C60,J61,D61,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>90.517254737626942</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C61,C60,J61,D61,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>93.358626954725224</v>
       </c>
     </row>
     <row r="61" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8095,12 +9034,12 @@
         <v>59</v>
       </c>
       <c r="E61" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C60,C61,E60,D60,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>91.851866019011652</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C60,C61,E60,D60,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>82.627540776409361</v>
       </c>
       <c r="J61" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C62,C61,J62,D62,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>97.01361703042798</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C62,C61,J62,D62,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>99.487453869047357</v>
       </c>
     </row>
     <row r="62" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8113,12 +9052,12 @@
         <v>62</v>
       </c>
       <c r="E62" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C61,C62,E61,D61,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>98.385357832978769</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C61,C62,E61,D61,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>88.389713070743966</v>
       </c>
       <c r="J62" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C63,C62,J63,D63,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>103.63252606146156</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C63,C62,J63,D63,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>105.74523483000064</v>
       </c>
     </row>
     <row r="63" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8131,12 +9070,12 @@
         <v>65</v>
       </c>
       <c r="E63" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C62,C63,E62,D62,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>105.03835251789924</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C62,C63,E62,D62,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>94.305729415515501</v>
       </c>
       <c r="J63" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C64,C63,J64,D64,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>110.36082867360091</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C64,C63,J64,D64,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>112.11920169076619</v>
       </c>
     </row>
     <row r="64" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -8149,15 +9088,15 @@
         <v>68</v>
       </c>
       <c r="E64" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C63,C64,E63,D63,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>111.79800702298648</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C63,C64,E63,D63,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>100.36051438473054</v>
       </c>
       <c r="J64" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C65,C64,J65,D65,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>117.18704850375278</v>
-      </c>
-    </row>
-    <row r="65" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C65,C64,J65,D65,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>118.59724339320155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="64">
         <f t="shared" si="1"/>
         <v>1700</v>
@@ -8167,15 +9106,15 @@
         <v>71</v>
       </c>
       <c r="E65" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C64,C65,E64,D64,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>118.6531359543705</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C64,C65,E64,D64,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>106.54148843863241</v>
       </c>
       <c r="J65" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C66,C65,J66,D66,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>124.10122492164474</v>
-      </c>
-    </row>
-    <row r="66" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C66,C65,J66,D66,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>125.16864715150933</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C66" s="64">
         <f t="shared" si="1"/>
         <v>1800</v>
@@ -8185,15 +9124,15 @@
         <v>74</v>
       </c>
       <c r="E66" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C65,C66,E65,D65,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>125.59436137336776</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C65,C66,E65,D65,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>112.83684548745266</v>
       </c>
       <c r="J66" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C67,C66,J67,D67,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>131.07301223102681</v>
-      </c>
-    </row>
-    <row r="67" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C67,C66,J67,D67,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>131.78745941781119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C67" s="64">
         <f t="shared" si="1"/>
         <v>1900</v>
@@ -8203,15 +9142,15 @@
         <v>77</v>
       </c>
       <c r="E67" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C66,C67,E66,D66,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>132.57457435390785</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C66,C67,E66,D66,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>119.23533489466178</v>
       </c>
       <c r="J67" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C68,C67,J68,D68,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>138.04178308259057</v>
-      </c>
-    </row>
-    <row r="68" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C68,C67,J68,D68,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>138.39898468171211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C68" s="64">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -8220,18 +9159,576 @@
         <v>80</v>
       </c>
       <c r="E68" s="62">
-        <f>[1]!MF_dPpipe_atma(Q_,wc_,C67,C68,E67,D67,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
-        <v>139.54514160291967</v>
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,C67,C68,E67,D67,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>125.72637028585582</v>
       </c>
       <c r="J68" s="66">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>338</v>
+      </c>
+      <c r="E73" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="F73" s="116">
+        <f>[1]!IPR_Ql_sm3Day(PI_1,Pres_,0,wc_,Pb_)</f>
+        <v>150.13135401325249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="B74" s="77">
+        <f>E68</f>
+        <v>125.72637028585582</v>
+      </c>
+      <c r="C74" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="H74" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H75" s="53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>335</v>
+      </c>
+      <c r="E76" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="G76" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="H76" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="I76" s="78"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="B77" s="77">
+        <f>[1]!IPR_PI_sm3dayatm(Qtest_,B74,Pres_,wc_,Pb_)</f>
+        <v>0.81513284587787216</v>
+      </c>
+      <c r="C77" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="E77" s="76">
+        <v>0</v>
+      </c>
+      <c r="F77" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E77,wc_,Pb_)</f>
+        <v>250</v>
+      </c>
+      <c r="G77" s="62">
+        <f>[1]!MF_dPpipe_atma(0.01,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>161.58056674595011</v>
+      </c>
+      <c r="H77" s="62">
+        <f>[1]!MF_dPpipe_atma(0.01,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>184.54639687213466</v>
+      </c>
+      <c r="I77" s="71"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E78" s="76">
+        <f t="shared" ref="E78:E97" si="2">E77+Qmax_/N_</f>
+        <v>7.5065677006626244</v>
+      </c>
+      <c r="F78" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E78,wc_,Pb_)</f>
+        <v>240.79098856263326</v>
+      </c>
+      <c r="G78" s="62">
+        <f>[1]!MF_dPpipe_atma(E78,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>161.03192235075352</v>
+      </c>
+      <c r="H78" s="62">
+        <f>[1]!MF_dPpipe_atma(E78,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>184.51823243539519</v>
+      </c>
+      <c r="I78" s="71"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E79" s="76">
+        <f t="shared" si="2"/>
+        <v>15.013135401325249</v>
+      </c>
+      <c r="F79" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E79,wc_,Pb_)</f>
+        <v>231.58197712526652</v>
+      </c>
+      <c r="G79" s="62">
+        <f>[1]!MF_dPpipe_atma(E79,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>159.27288816086445</v>
+      </c>
+      <c r="H79" s="62">
+        <f>[1]!MF_dPpipe_atma(E79,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>183.85055415868501</v>
+      </c>
+      <c r="I79" s="71"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E80" s="76">
+        <f t="shared" si="2"/>
+        <v>22.519703101987872</v>
+      </c>
+      <c r="F80" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E80,wc_,Pb_)</f>
+        <v>222.37296568789978</v>
+      </c>
+      <c r="G80" s="62">
+        <f>[1]!MF_dPpipe_atma(E80,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>156.68999022188311</v>
+      </c>
+      <c r="H80" s="62">
+        <f>[1]!MF_dPpipe_atma(E80,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>182.45053074547664</v>
+      </c>
+      <c r="I80" s="71"/>
+    </row>
+    <row r="81" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E81" s="76">
+        <f t="shared" si="2"/>
+        <v>30.026270802650497</v>
+      </c>
+      <c r="F81" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E81,wc_,Pb_)</f>
+        <v>213.16395425053304</v>
+      </c>
+      <c r="G81" s="62">
+        <f>[1]!MF_dPpipe_atma(E81,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>153.12114612691926</v>
+      </c>
+      <c r="H81" s="62">
+        <f>[1]!MF_dPpipe_atma(E81,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>180.32293649801312</v>
+      </c>
+      <c r="I81" s="71"/>
+    </row>
+    <row r="82" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E82" s="76">
+        <f t="shared" si="2"/>
+        <v>37.532838503313123</v>
+      </c>
+      <c r="F82" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E82,wc_,Pb_)</f>
+        <v>203.9549428131663</v>
+      </c>
+      <c r="G82" s="62">
+        <f>[1]!MF_dPpipe_atma(E82,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>148.25457548987569</v>
+      </c>
+      <c r="H82" s="62">
+        <f>[1]!MF_dPpipe_atma(E82,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>177.36227177641854</v>
+      </c>
+      <c r="I82" s="71"/>
+    </row>
+    <row r="83" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E83" s="76">
+        <f t="shared" si="2"/>
+        <v>45.039406203975744</v>
+      </c>
+      <c r="F83" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E83,wc_,Pb_)</f>
+        <v>194.74593137579956</v>
+      </c>
+      <c r="G83" s="62">
+        <f>[1]!MF_dPpipe_atma(E83,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>141.68154976334534</v>
+      </c>
+      <c r="H83" s="62">
+        <f>[1]!MF_dPpipe_atma(E83,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>173.37940961517512</v>
+      </c>
+      <c r="I83" s="71"/>
+    </row>
+    <row r="84" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E84" s="76">
+        <f t="shared" si="2"/>
+        <v>52.545973904638366</v>
+      </c>
+      <c r="F84" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E84,wc_,Pb_)</f>
+        <v>185.53691993843282</v>
+      </c>
+      <c r="G84" s="62">
+        <f>[1]!MF_dPpipe_atma(E84,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>136.6775146261615</v>
+      </c>
+      <c r="H84" s="62">
+        <f>[1]!MF_dPpipe_atma(E84,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>168.52107999922245</v>
+      </c>
+      <c r="I84" s="71"/>
+    </row>
+    <row r="85" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E85" s="76">
+        <f t="shared" si="2"/>
+        <v>60.052541605300988</v>
+      </c>
+      <c r="F85" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E85,wc_,Pb_)</f>
+        <v>176.3279085010661</v>
+      </c>
+      <c r="G85" s="62">
+        <f>[1]!MF_dPpipe_atma(E85,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>135.9861348803459</v>
+      </c>
+      <c r="H85" s="62">
+        <f>[1]!MF_dPpipe_atma(E85,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>166.51215401594109</v>
+      </c>
+      <c r="I85" s="71"/>
+    </row>
+    <row r="86" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E86" s="76">
+        <f t="shared" si="2"/>
+        <v>67.559109305963617</v>
+      </c>
+      <c r="F86" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E86,wc_,Pb_)</f>
+        <v>167.11889706369934</v>
+      </c>
+      <c r="G86" s="62">
+        <f>[1]!MF_dPpipe_atma(E86,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>135.62203992006485</v>
+      </c>
+      <c r="H86" s="62">
+        <f>[1]!MF_dPpipe_atma(E86,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>166.25168162453437</v>
+      </c>
+      <c r="I86" s="71"/>
+    </row>
+    <row r="87" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E87" s="76">
+        <f t="shared" si="2"/>
+        <v>75.065677006626245</v>
+      </c>
+      <c r="F87" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E87,wc_,Pb_)</f>
+        <v>157.9098856263326</v>
+      </c>
+      <c r="G87" s="62">
+        <f>[1]!MF_dPpipe_atma(E87,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>135.33364050039933</v>
+      </c>
+      <c r="H87" s="62">
+        <f>[1]!MF_dPpipe_atma(E87,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>166.04324514231382</v>
+      </c>
+      <c r="I87" s="71"/>
+    </row>
+    <row r="88" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E88" s="76">
+        <f t="shared" si="2"/>
+        <v>82.572244707288874</v>
+      </c>
+      <c r="F88" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E88,wc_,Pb_)</f>
+        <v>148.69633859621277</v>
+      </c>
+      <c r="G88" s="62">
+        <f>[1]!MF_dPpipe_atma(E88,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>135.11158186648291</v>
+      </c>
+      <c r="H88" s="62">
+        <f>[1]!MF_dPpipe_atma(E88,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>165.88301082263661</v>
+      </c>
+      <c r="I88" s="71"/>
+    </row>
+    <row r="89" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E89" s="76">
+        <f t="shared" si="2"/>
+        <v>90.078812407951503</v>
+      </c>
+      <c r="F89" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E89,wc_,Pb_)</f>
+        <v>139.17750645001865</v>
+      </c>
+      <c r="G89" s="62">
+        <f>[1]!MF_dPpipe_atma(E89,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>134.94664592029127</v>
+      </c>
+      <c r="H89" s="62">
+        <f>[1]!MF_dPpipe_atma(E89,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>165.76143469429798</v>
+      </c>
+      <c r="I89" s="71"/>
+    </row>
+    <row r="90" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E90" s="76">
+        <f t="shared" si="2"/>
+        <v>97.585380108614132</v>
+      </c>
+      <c r="F90" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E90,wc_,Pb_)</f>
+        <v>129.10380262958219</v>
+      </c>
+      <c r="G90" s="62">
+        <f>[1]!MF_dPpipe_atma(E90,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>134.83106592243607</v>
+      </c>
+      <c r="H90" s="62">
+        <f>[1]!MF_dPpipe_atma(E90,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>165.67889234057114</v>
+      </c>
+      <c r="I90" s="71"/>
+    </row>
+    <row r="91" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E91" s="76">
+        <f t="shared" si="2"/>
+        <v>105.09194780927676</v>
+      </c>
+      <c r="F91" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E91,wc_,Pb_)</f>
+        <v>118.35154009809099</v>
+      </c>
+      <c r="G91" s="62">
+        <f>[1]!MF_dPpipe_atma(E91,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>134.76153509274681</v>
+      </c>
+      <c r="H91" s="62">
+        <f>[1]!MF_dPpipe_atma(E91,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>165.63174106658673</v>
+      </c>
+      <c r="I91" s="71"/>
+    </row>
+    <row r="92" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E92" s="76">
+        <f t="shared" si="2"/>
+        <v>112.59851550993939</v>
+      </c>
+      <c r="F92" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E92,wc_,Pb_)</f>
+        <v>106.74285346464455</v>
+      </c>
+      <c r="G92" s="62">
+        <f>[1]!MF_dPpipe_atma(E92,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>134.7361591350508</v>
+      </c>
+      <c r="H92" s="62">
+        <f>[1]!MF_dPpipe_atma(E92,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>165.61240370234293</v>
+      </c>
+      <c r="I92" s="71"/>
+    </row>
+    <row r="93" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E93" s="76">
+        <f t="shared" si="2"/>
+        <v>120.10508321060202</v>
+      </c>
+      <c r="F93" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E93,wc_,Pb_)</f>
+        <v>94.005190967246946</v>
+      </c>
+      <c r="G93" s="62">
+        <f>[1]!MF_dPpipe_atma(E93,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>134.74959795417709</v>
+      </c>
+      <c r="H93" s="62">
+        <f>[1]!MF_dPpipe_atma(E93,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>165.61966423475022</v>
+      </c>
+      <c r="I93" s="71"/>
+    </row>
+    <row r="94" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E94" s="76">
+        <f t="shared" si="2"/>
+        <v>127.61165091126465</v>
+      </c>
+      <c r="F94" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E94,wc_,Pb_)</f>
+        <v>79.68083865145735</v>
+      </c>
+      <c r="G94" s="62">
+        <f>[1]!MF_dPpipe_atma(E94,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>134.84870428711204</v>
+      </c>
+      <c r="H94" s="62">
+        <f>[1]!MF_dPpipe_atma(E94,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>165.65204558339963</v>
+      </c>
+      <c r="I94" s="71"/>
+    </row>
+    <row r="95" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E95" s="76">
+        <f t="shared" si="2"/>
+        <v>135.11821861192726</v>
+      </c>
+      <c r="F95" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E95,wc_,Pb_)</f>
+        <v>62.880908180761416</v>
+      </c>
+      <c r="G95" s="62">
+        <f>[1]!MF_dPpipe_atma(E95,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>135.02896315414915</v>
+      </c>
+      <c r="H95" s="62">
+        <f>[1]!MF_dPpipe_atma(E95,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>165.74948921232311</v>
+      </c>
+      <c r="I95" s="71"/>
+    </row>
+    <row r="96" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E96" s="76">
+        <f t="shared" si="2"/>
+        <v>142.62478631258989</v>
+      </c>
+      <c r="F96" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E96,wc_,Pb_)</f>
+        <v>41.330531975564476</v>
+      </c>
+      <c r="G96" s="62">
+        <f>[1]!MF_dPpipe_atma(E96,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>135.29500651476201</v>
+      </c>
+      <c r="H96" s="62">
+        <f>[1]!MF_dPpipe_atma(E96,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>165.96259552447376</v>
+      </c>
+      <c r="I96" s="71"/>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E97" s="76">
+        <f t="shared" si="2"/>
+        <v>150.13135401325252</v>
+      </c>
+      <c r="F97" s="62">
+        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E97,wc_,Pb_)</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="62">
+        <f>[1]!MF_dPpipe_atma(E97,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>135.64055790256444</v>
+      </c>
+      <c r="H97" s="62">
+        <f>[1]!MF_dPpipe_atma(E97,$H$75,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_)</f>
+        <v>166.22681898460669</v>
+      </c>
+      <c r="I97" s="71"/>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C98" s="65"/>
+      <c r="G98" s="71"/>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C99" s="65"/>
+      <c r="G99" s="71"/>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C100" s="65"/>
+      <c r="G100" s="71"/>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C101" s="65"/>
+      <c r="G101" s="71"/>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C102" s="65"/>
+      <c r="G102" s="71"/>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C103" s="65"/>
+      <c r="G103" s="71"/>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C104" s="65"/>
+      <c r="G104" s="71"/>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C105" s="65"/>
+      <c r="G105" s="71"/>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C106" s="65"/>
+      <c r="G106" s="71"/>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C107" s="65"/>
+      <c r="G107" s="71"/>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C108" s="65"/>
+      <c r="G108" s="71"/>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C109" s="65"/>
+      <c r="G109" s="71"/>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C110" s="65"/>
+      <c r="G110" s="71"/>
+    </row>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C111" s="65"/>
+      <c r="G111" s="71"/>
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C112" s="65"/>
+      <c r="G112" s="71"/>
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C113" s="65"/>
+      <c r="G113" s="71"/>
+    </row>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C114" s="65"/>
+      <c r="G114" s="71"/>
+    </row>
+    <row r="115" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C115" s="65"/>
+      <c r="G115" s="71"/>
+    </row>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C116" s="65"/>
+      <c r="G116" s="71"/>
+    </row>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C117" s="65"/>
+      <c r="G117" s="71"/>
+    </row>
+    <row r="118" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C118" s="65"/>
+      <c r="G118" s="71"/>
+    </row>
+    <row r="119" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C119" s="65"/>
+      <c r="G119" s="71"/>
+    </row>
+    <row r="120" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C120" s="65"/>
+      <c r="G120" s="71"/>
+    </row>
+    <row r="126" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K126" t="s">
         <v>301</v>
       </c>
@@ -8282,29 +9779,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="V2" s="69" t="s">
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="V2" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
     </row>
     <row r="3" spans="2:25" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
@@ -64041,15 +65538,15 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="77">
+      <c r="K1" s="83"/>
+      <c r="L1" s="88">
         <f>AV7-1</f>
         <v>-1</v>
       </c>
-      <c r="M1" s="78"/>
+      <c r="M1" s="89"/>
       <c r="Q1" t="b">
         <v>0</v>
       </c>
@@ -64061,15 +65558,15 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75">
+      <c r="K2" s="85"/>
+      <c r="L2" s="86">
         <f>AY11-1</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="76"/>
+      <c r="M2" s="87"/>
       <c r="T2" s="20" t="s">
         <v>20</v>
       </c>
@@ -64083,31 +65580,31 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="94"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="105"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="95">
+      <c r="B5" s="106">
         <v>1</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -64116,14 +65613,14 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="D8" s="101" t="s">
+      <c r="B8" s="113"/>
+      <c r="D8" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="102"/>
+      <c r="E8" s="113"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -64234,10 +65731,10 @@
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="104"/>
+      <c r="B18" s="115"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -64265,10 +65762,10 @@
     </row>
     <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="104"/>
+      <c r="B23" s="115"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -64390,99 +65887,99 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="81" t="s">
+      <c r="B42" s="103"/>
+      <c r="C42" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="84" t="s">
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="85"/>
-      <c r="L42" s="70" t="s">
+      <c r="J42" s="96"/>
+      <c r="L42" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70" t="s">
+      <c r="M42" s="81"/>
+      <c r="N42" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70" t="s">
+      <c r="O42" s="81"/>
+      <c r="P42" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70" t="s">
+      <c r="Q42" s="81"/>
+      <c r="R42" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="70"/>
-      <c r="T42" s="70" t="s">
+      <c r="S42" s="81"/>
+      <c r="T42" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="70"/>
-      <c r="V42" s="70" t="s">
+      <c r="U42" s="81"/>
+      <c r="V42" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="70"/>
-      <c r="X42" s="70" t="s">
+      <c r="W42" s="81"/>
+      <c r="X42" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="70"/>
-      <c r="Z42" s="70" t="s">
+      <c r="Y42" s="81"/>
+      <c r="Z42" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="70"/>
-      <c r="AB42" s="70" t="s">
+      <c r="AA42" s="81"/>
+      <c r="AB42" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" s="70"/>
-      <c r="AD42" s="70" t="s">
+      <c r="AC42" s="81"/>
+      <c r="AD42" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="70"/>
-      <c r="AF42" s="70" t="s">
+      <c r="AE42" s="81"/>
+      <c r="AF42" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="70"/>
-      <c r="AH42" s="70" t="s">
+      <c r="AG42" s="81"/>
+      <c r="AH42" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="AI42" s="70"/>
-      <c r="AJ42" s="70" t="s">
+      <c r="AI42" s="81"/>
+      <c r="AJ42" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="70"/>
-      <c r="AL42" s="70"/>
-      <c r="AM42" s="70"/>
-      <c r="AN42" s="70"/>
-      <c r="AO42" s="70"/>
-      <c r="AP42" s="70"/>
-      <c r="AQ42" s="70"/>
-      <c r="AR42" s="70"/>
-      <c r="AS42" s="70"/>
+      <c r="AK42" s="81"/>
+      <c r="AL42" s="81"/>
+      <c r="AM42" s="81"/>
+      <c r="AN42" s="81"/>
+      <c r="AO42" s="81"/>
+      <c r="AP42" s="81"/>
+      <c r="AQ42" s="81"/>
+      <c r="AR42" s="81"/>
+      <c r="AS42" s="81"/>
       <c r="AT42" s="22"/>
     </row>
     <row r="43" spans="1:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="88"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="88" t="s">
+      <c r="A43" s="99"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="88" t="s">
+      <c r="D43" s="100"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="89"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="87"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="98"/>
       <c r="L43" s="22" t="s">
         <v>15</v>
       </c>
@@ -64578,17 +66075,17 @@
       <c r="B44" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="79" t="s">
+      <c r="C44" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="80"/>
+      <c r="D44" s="91"/>
       <c r="E44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="79" t="s">
+      <c r="F44" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="80"/>
+      <c r="G44" s="91"/>
       <c r="H44" s="9" t="s">
         <v>65</v>
       </c>

--- a/Упражнения ИРДН/Фонтан.xlsx
+++ b/Упражнения ИРДН/Фонтан.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="345">
   <si>
     <t>Конструкция</t>
   </si>
@@ -1175,6 +1175,9 @@
   <si>
     <t>м3/сут/ат</t>
   </si>
+  <si>
+    <t>ГФ</t>
+  </si>
 </sst>
 </file>
 
@@ -1293,7 +1296,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1351,6 +1354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,7 +1808,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2010,60 +2019,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2072,16 +2038,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2122,7 +2083,58 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Iau?iue_AA_1" xfId="1"/>
@@ -2668,11 +2680,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296075840"/>
-        <c:axId val="296076416"/>
+        <c:axId val="214620928"/>
+        <c:axId val="214621504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296075840"/>
+        <c:axId val="214620928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2770,12 +2782,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296076416"/>
+        <c:crossAx val="214621504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296076416"/>
+        <c:axId val="214621504"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2873,7 +2885,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296075840"/>
+        <c:crossAx val="214620928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2994,6 +3006,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3258,11 +3271,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296079296"/>
-        <c:axId val="296079872"/>
+        <c:axId val="215288064"/>
+        <c:axId val="215288640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296079296"/>
+        <c:axId val="215288064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3313,6 +3326,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3359,12 +3373,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296079872"/>
+        <c:crossAx val="215288640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296079872"/>
+        <c:axId val="215288640"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3415,6 +3429,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3461,7 +3476,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296079296"/>
+        <c:crossAx val="215288064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3475,6 +3490,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4080,11 +4096,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296082176"/>
-        <c:axId val="296082752"/>
+        <c:axId val="215290944"/>
+        <c:axId val="215291520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296082176"/>
+        <c:axId val="215290944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4189,12 +4205,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296082752"/>
+        <c:crossAx val="215291520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296082752"/>
+        <c:axId val="215291520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4288,7 +4304,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296082176"/>
+        <c:crossAx val="215290944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4343,6 +4359,630 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+              <a:t> давления на забое от ГФ для разных обводненностей</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16469648060649439"/>
+          <c:y val="7.5097241037879348E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1963857295924638E-2"/>
+          <c:y val="0.18752125682155366"/>
+          <c:w val="0.85311442978860696"/>
+          <c:h val="0.70531459280289899"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Упражнения!$F$107:$F$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Упражнения!$G$107:$G$127</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>163.44434686087627</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144.89155168357908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.67043826784105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109.62758392011047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.529976077671662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.399942724902388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.382883955825449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.886139613812688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.489073031076828</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.903204129940519</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.9293451544047</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.350067891695417</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.106805903368667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.192337221568252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.553412656456757</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79.11777156969957</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.876003661207776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.77297299227007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.810735170055352</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.925453490197114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.15505735886839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Упражнения!$F$107:$F$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Упражнения!$H$107:$H$127</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>185.91726960296353</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>172.82200263959834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.29289476223943</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143.83357505793205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.96610442617492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124.50962416702714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.74960481330123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.97131082780155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107.06760502992559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102.93597523872094</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.475442894907999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.589712082363903</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.192048362968109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.207692366036866</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90.573778955694905</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89.238087714948193</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88.157426089245448</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87.296051081141243</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>86.624288603205855</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86.08470839605863</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.645949578053902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="251762880"/>
+        <c:axId val="40058880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="251762880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Газовый фактор,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> м3/м3</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39163245136816122"/>
+              <c:y val="0.94504729311454316"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40058880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="40058880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Давление на забое, атм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251762880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4750,11 +5390,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296807808"/>
-        <c:axId val="296808384"/>
+        <c:axId val="153822912"/>
+        <c:axId val="153823488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296807808"/>
+        <c:axId val="153822912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4799,12 +5439,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296808384"/>
+        <c:crossAx val="153823488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296808384"/>
+        <c:axId val="153823488"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="0"/>
@@ -4849,7 +5489,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296807808"/>
+        <c:crossAx val="153822912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4926,7 +5566,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -5380,11 +6020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296810112"/>
-        <c:axId val="296810688"/>
+        <c:axId val="153825216"/>
+        <c:axId val="153825792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296810112"/>
+        <c:axId val="153825216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5429,12 +6069,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296810688"/>
+        <c:crossAx val="153825792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296810688"/>
+        <c:axId val="153825792"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="0"/>
@@ -5479,7 +6119,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296810112"/>
+        <c:crossAx val="153825216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5556,7 +6196,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -5961,11 +6601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296755200"/>
-        <c:axId val="296755776"/>
+        <c:axId val="153827520"/>
+        <c:axId val="153828096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296755200"/>
+        <c:axId val="153827520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6010,12 +6650,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296755776"/>
+        <c:crossAx val="153828096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296755776"/>
+        <c:axId val="153828096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6060,7 +6700,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296755200"/>
+        <c:crossAx val="153827520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7474,6 +8114,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>139373</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>70370</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8389,10 +9061,296 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Стандартная">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Стандартная">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Стандартная">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8402,8 +9360,8 @@
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="C103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -9185,7 +10143,7 @@
       <c r="E73" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="F73" s="116">
+      <c r="F73" s="79">
         <f>[1]!IPR_Ql_sm3Day(PI_1,Pres_,0,wc_,Pb_)</f>
         <v>150.13135401325249</v>
       </c>
@@ -9662,75 +10620,335 @@
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C104" s="65"/>
-      <c r="G104" s="71"/>
+      <c r="H104" s="53" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C105" s="65"/>
-      <c r="G105" s="71"/>
+      <c r="H105" s="53">
+        <v>50</v>
+      </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C106" s="65"/>
-      <c r="G106" s="71"/>
+      <c r="F106" s="117" t="s">
+        <v>344</v>
+      </c>
+      <c r="G106" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="H106" s="75" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C107" s="65"/>
-      <c r="G107" s="71"/>
+      <c r="F107" s="117">
+        <v>10</v>
+      </c>
+      <c r="G107" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F107,Pb_,Tres_)</f>
+        <v>163.44434686087627</v>
+      </c>
+      <c r="H107" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F107,Pb_,Tres_)</f>
+        <v>185.91726960296353</v>
+      </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C108" s="65"/>
-      <c r="G108" s="71"/>
+      <c r="F108" s="117">
+        <v>50</v>
+      </c>
+      <c r="G108" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F108,Pb_,Tres_)</f>
+        <v>144.89155168357908</v>
+      </c>
+      <c r="H108" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F108,Pb_,Tres_)</f>
+        <v>172.82200263959834</v>
+      </c>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C109" s="65"/>
-      <c r="G109" s="71"/>
+      <c r="F109" s="117">
+        <f>F108+50</f>
+        <v>100</v>
+      </c>
+      <c r="G109" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F109,Pb_,Tres_)</f>
+        <v>125.67043826784105</v>
+      </c>
+      <c r="H109" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F109,Pb_,Tres_)</f>
+        <v>158.29289476223943</v>
+      </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C110" s="65"/>
-      <c r="G110" s="71"/>
+      <c r="F110" s="117">
+        <f t="shared" ref="F110:F127" si="3">F109+50</f>
+        <v>150</v>
+      </c>
+      <c r="G110" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F110,Pb_,Tres_)</f>
+        <v>109.62758392011047</v>
+      </c>
+      <c r="H110" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F110,Pb_,Tres_)</f>
+        <v>143.83357505793205</v>
+      </c>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C111" s="65"/>
-      <c r="G111" s="71"/>
+      <c r="F111" s="117">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="G111" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F111,Pb_,Tres_)</f>
+        <v>99.529976077671662</v>
+      </c>
+      <c r="H111" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F111,Pb_,Tres_)</f>
+        <v>132.96610442617492</v>
+      </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C112" s="65"/>
-      <c r="G112" s="71"/>
+      <c r="F112" s="117">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="G112" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F112,Pb_,Tres_)</f>
+        <v>92.399942724902388</v>
+      </c>
+      <c r="H112" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F112,Pb_,Tres_)</f>
+        <v>124.50962416702714</v>
+      </c>
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C113" s="65"/>
-      <c r="G113" s="71"/>
+      <c r="F113" s="117">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="G113" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F113,Pb_,Tres_)</f>
+        <v>87.382883955825449</v>
+      </c>
+      <c r="H113" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F113,Pb_,Tres_)</f>
+        <v>117.74960481330123</v>
+      </c>
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C114" s="65"/>
-      <c r="G114" s="71"/>
+      <c r="F114" s="117">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="G114" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F114,Pb_,Tres_)</f>
+        <v>83.886139613812688</v>
+      </c>
+      <c r="H114" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F114,Pb_,Tres_)</f>
+        <v>111.97131082780155</v>
+      </c>
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C115" s="65"/>
-      <c r="G115" s="71"/>
+      <c r="F115" s="117">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="G115" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F115,Pb_,Tres_)</f>
+        <v>81.489073031076828</v>
+      </c>
+      <c r="H115" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F115,Pb_,Tres_)</f>
+        <v>107.06760502992559</v>
+      </c>
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C116" s="65"/>
-      <c r="G116" s="71"/>
+      <c r="F116" s="117">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="G116" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F116,Pb_,Tres_)</f>
+        <v>79.903204129940519</v>
+      </c>
+      <c r="H116" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F116,Pb_,Tres_)</f>
+        <v>102.93597523872094</v>
+      </c>
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C117" s="65"/>
-      <c r="G117" s="71"/>
+      <c r="F117" s="117">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="G117" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F117,Pb_,Tres_)</f>
+        <v>78.9293451544047</v>
+      </c>
+      <c r="H117" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F117,Pb_,Tres_)</f>
+        <v>99.475442894907999</v>
+      </c>
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C118" s="65"/>
-      <c r="G118" s="71"/>
+      <c r="F118" s="117">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="G118" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F118,Pb_,Tres_)</f>
+        <v>78.350067891695417</v>
+      </c>
+      <c r="H118" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F118,Pb_,Tres_)</f>
+        <v>96.589712082363903</v>
+      </c>
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C119" s="65"/>
-      <c r="G119" s="71"/>
+      <c r="F119" s="117">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="G119" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F119,Pb_,Tres_)</f>
+        <v>78.106805903368667</v>
+      </c>
+      <c r="H119" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F119,Pb_,Tres_)</f>
+        <v>94.192048362968109</v>
+      </c>
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C120" s="65"/>
-      <c r="G120" s="71"/>
+      <c r="F120" s="117">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="G120" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F120,Pb_,Tres_)</f>
+        <v>78.192337221568252</v>
+      </c>
+      <c r="H120" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F120,Pb_,Tres_)</f>
+        <v>92.207692366036866</v>
+      </c>
+    </row>
+    <row r="121" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F121" s="117">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="G121" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F121,Pb_,Tres_)</f>
+        <v>78.553412656456757</v>
+      </c>
+      <c r="H121" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F121,Pb_,Tres_)</f>
+        <v>90.573778955694905</v>
+      </c>
+    </row>
+    <row r="122" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F122" s="117">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="G122" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F122,Pb_,Tres_)</f>
+        <v>79.11777156969957</v>
+      </c>
+      <c r="H122" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F122,Pb_,Tres_)</f>
+        <v>89.238087714948193</v>
+      </c>
+    </row>
+    <row r="123" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F123" s="117">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="G123" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F123,Pb_,Tres_)</f>
+        <v>79.876003661207776</v>
+      </c>
+      <c r="H123" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F123,Pb_,Tres_)</f>
+        <v>88.157426089245448</v>
+      </c>
+    </row>
+    <row r="124" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F124" s="117">
+        <f t="shared" si="3"/>
+        <v>850</v>
+      </c>
+      <c r="G124" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F124,Pb_,Tres_)</f>
+        <v>80.77297299227007</v>
+      </c>
+      <c r="H124" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F124,Pb_,Tres_)</f>
+        <v>87.296051081141243</v>
+      </c>
+    </row>
+    <row r="125" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F125" s="117">
+        <f>F124+50</f>
+        <v>900</v>
+      </c>
+      <c r="G125" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F125,Pb_,Tres_)</f>
+        <v>81.810735170055352</v>
+      </c>
+      <c r="H125" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F125,Pb_,Tres_)</f>
+        <v>86.624288603205855</v>
+      </c>
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F126" s="117">
+        <f t="shared" si="3"/>
+        <v>950</v>
+      </c>
+      <c r="G126" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F126,Pb_,Tres_)</f>
+        <v>82.925453490197114</v>
+      </c>
+      <c r="H126" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F126,Pb_,Tres_)</f>
+        <v>86.08470839605863</v>
+      </c>
       <c r="K126" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="127" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="F127" s="117">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="G127" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,wc_,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F127,Pb_,Tres_)</f>
+        <v>84.15505735886839</v>
+      </c>
+      <c r="H127" s="62">
+        <f>[1]!MF_dPpipe_atma(Qtest_,$H$105,0,Hmes_,Pbuf_,$D$48,,Dtub_,,gamma_gas_,gamma_oil_,,Rsb_,F127,Pb_,Tres_)</f>
+        <v>85.645949578053902</v>
       </c>
     </row>
     <row r="137" spans="11:11" x14ac:dyDescent="0.2">
@@ -9779,29 +10997,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="V2" s="80" t="s">
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="V2" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
     </row>
     <row r="3" spans="2:25" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
@@ -65538,15 +66756,15 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="88">
+      <c r="K1" s="110"/>
+      <c r="L1" s="114">
         <f>AV7-1</f>
         <v>-1</v>
       </c>
-      <c r="M1" s="89"/>
+      <c r="M1" s="115"/>
       <c r="Q1" t="b">
         <v>0</v>
       </c>
@@ -65558,15 +66776,15 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="85"/>
-      <c r="L2" s="86">
+      <c r="K2" s="112"/>
+      <c r="L2" s="87">
         <f>AY11-1</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="87"/>
+      <c r="M2" s="113"/>
       <c r="T2" s="20" t="s">
         <v>20</v>
       </c>
@@ -65580,31 +66798,31 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="105"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="89">
         <v>1</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -65613,14 +66831,14 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="D8" s="112" t="s">
+      <c r="B8" s="96"/>
+      <c r="D8" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="113"/>
+      <c r="E8" s="96"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -65731,10 +66949,10 @@
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="98"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -65762,10 +66980,10 @@
     </row>
     <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="115"/>
+      <c r="B23" s="98"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -65887,99 +67105,99 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="103"/>
-      <c r="C42" s="92" t="s">
+      <c r="B42" s="83"/>
+      <c r="C42" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="95" t="s">
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="96"/>
-      <c r="L42" s="81" t="s">
+      <c r="J42" s="105"/>
+      <c r="L42" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81" t="s">
+      <c r="M42" s="116"/>
+      <c r="N42" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81" t="s">
+      <c r="O42" s="116"/>
+      <c r="P42" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="81" t="s">
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="81"/>
-      <c r="T42" s="81" t="s">
+      <c r="S42" s="116"/>
+      <c r="T42" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="81"/>
-      <c r="V42" s="81" t="s">
+      <c r="U42" s="116"/>
+      <c r="V42" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="81"/>
-      <c r="X42" s="81" t="s">
+      <c r="W42" s="116"/>
+      <c r="X42" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="81"/>
-      <c r="Z42" s="81" t="s">
+      <c r="Y42" s="116"/>
+      <c r="Z42" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="81"/>
-      <c r="AB42" s="81" t="s">
+      <c r="AA42" s="116"/>
+      <c r="AB42" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" s="81"/>
-      <c r="AD42" s="81" t="s">
+      <c r="AC42" s="116"/>
+      <c r="AD42" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="81"/>
-      <c r="AF42" s="81" t="s">
+      <c r="AE42" s="116"/>
+      <c r="AF42" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="81"/>
-      <c r="AH42" s="81" t="s">
+      <c r="AG42" s="116"/>
+      <c r="AH42" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="AI42" s="81"/>
-      <c r="AJ42" s="81" t="s">
+      <c r="AI42" s="116"/>
+      <c r="AJ42" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="81"/>
-      <c r="AL42" s="81"/>
-      <c r="AM42" s="81"/>
-      <c r="AN42" s="81"/>
-      <c r="AO42" s="81"/>
-      <c r="AP42" s="81"/>
-      <c r="AQ42" s="81"/>
-      <c r="AR42" s="81"/>
-      <c r="AS42" s="81"/>
+      <c r="AK42" s="116"/>
+      <c r="AL42" s="116"/>
+      <c r="AM42" s="116"/>
+      <c r="AN42" s="116"/>
+      <c r="AO42" s="116"/>
+      <c r="AP42" s="116"/>
+      <c r="AQ42" s="116"/>
+      <c r="AR42" s="116"/>
+      <c r="AS42" s="116"/>
       <c r="AT42" s="22"/>
     </row>
     <row r="43" spans="1:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="99"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="99" t="s">
+      <c r="A43" s="84"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="100"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="99" t="s">
+      <c r="D43" s="85"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="100"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="98"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="107"/>
       <c r="L43" s="22" t="s">
         <v>15</v>
       </c>
@@ -66075,17 +67293,17 @@
       <c r="B44" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="90" t="s">
+      <c r="C44" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="91"/>
+      <c r="D44" s="100"/>
       <c r="E44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="90" t="s">
+      <c r="F44" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="91"/>
+      <c r="G44" s="100"/>
       <c r="H44" s="9" t="s">
         <v>65</v>
       </c>
@@ -68558,20 +69776,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AL42:AM42"/>
+    <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AP42:AQ42"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -68586,13 +69797,20 @@
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="Z42:AA42"/>
     <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AL42:AM42"/>
-    <mergeCell ref="AN42:AO42"/>
-    <mergeCell ref="AP42:AQ42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
